--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H2">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N2">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O2">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P2">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q2">
-        <v>0.4035999918990822</v>
+        <v>0.4769115238444445</v>
       </c>
       <c r="R2">
-        <v>0.4035999918990822</v>
+        <v>4.2922037146</v>
       </c>
       <c r="S2">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="T2">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H3">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N3">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P3">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q3">
-        <v>2.321435635538492</v>
+        <v>2.477122590186222</v>
       </c>
       <c r="R3">
-        <v>2.321435635538492</v>
+        <v>22.294103311676</v>
       </c>
       <c r="S3">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="T3">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H4">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N4">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O4">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P4">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q4">
-        <v>1.650176711979292</v>
+        <v>1.879497097145778</v>
       </c>
       <c r="R4">
-        <v>1.650176711979292</v>
+        <v>16.915473874312</v>
       </c>
       <c r="S4">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="T4">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H5">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N5">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O5">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P5">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q5">
-        <v>1.190615115843038</v>
+        <v>1.248293143634666</v>
       </c>
       <c r="R5">
-        <v>1.190615115843038</v>
+        <v>11.234638292712</v>
       </c>
       <c r="S5">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="T5">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H6">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N6">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O6">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P6">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q6">
-        <v>2.837521638564207</v>
+        <v>2.965786361574667</v>
       </c>
       <c r="R6">
-        <v>2.837521638564207</v>
+        <v>17.794718169448</v>
       </c>
       <c r="S6">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="T6">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
     </row>
   </sheetData>
